--- a/deno/gen/option/option.xlsx
+++ b/deno/gen/option/option.xlsx
@@ -45,10 +45,10 @@
     <t xml:space="preserve">&lt;%forRow model in _data_.models%&gt;&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model.key%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.value%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.ky%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.val%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>

--- a/deno/gen/option/option.xlsx
+++ b/deno/gen/option/option.xlsx
@@ -39,6 +39,9 @@
     <t xml:space="preserve">值</t>
   </si>
   <si>
+    <t xml:space="preserve">启用</t>
+  </si>
+  <si>
     <t xml:space="preserve">备注</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.val%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
@@ -395,19 +401,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/deno/gen/option/option.xlsx
+++ b/deno/gen/option/option.xlsx
@@ -54,7 +54,7 @@
     <t xml:space="preserve">&lt;%=model.val%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model._is_enabled%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.is_enabled%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>
